--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1073,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,23 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44544</v>
-      </c>
-      <c r="B5" s="8">
-        <v>11400</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>41</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1166,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1186,7 +1182,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1202,7 +1198,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1218,7 +1214,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1234,7 +1230,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1250,7 +1246,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1266,7 +1262,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1282,7 +1278,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1298,7 +1294,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1314,7 +1310,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1330,7 +1326,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1346,7 +1342,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1362,7 +1358,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1378,7 +1374,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1394,7 +1390,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1410,7 +1406,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1426,7 +1422,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1442,7 +1438,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1458,7 +1454,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1474,7 +1470,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1490,7 +1486,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1506,7 +1502,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1522,7 +1518,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1538,7 +1534,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1554,7 +1550,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1570,7 +1566,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1586,7 +1582,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1602,7 +1598,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1619,7 +1615,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1644,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44589</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6600</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,47 +1150,59 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44599</v>
+      </c>
+      <c r="G5" s="8">
+        <v>120</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>6600</v>
+        <v>6480</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44599</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12200</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>6600</v>
+        <v>18680</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44595</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44601</v>
+      </c>
+      <c r="B7" s="16">
+        <v>7300</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44595</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44595</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1656,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>6600</v>
+        <v>26100</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1652,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1675,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>6600</v>
+        <v>25980</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - BHAWANI (JBP)</t>
+  </si>
+  <si>
+    <t>07-02-2022 gs</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,8 +1153,8 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44599</v>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="8">
         <v>120</v>
@@ -1162,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,7 +1205,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1221,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1237,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1253,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1269,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1285,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,7 +1301,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1317,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1333,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1349,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1365,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1381,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1397,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1413,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1429,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1445,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1461,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1477,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1493,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1509,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1525,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1541,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1557,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1573,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1589,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1605,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1621,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,7 +1638,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>07-02-2022 gs</t>
+  </si>
+  <si>
+    <t>gs12-4-2</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>6480</v>
+        <v>6380</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1180,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8">
+        <v>100</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>18680</v>
+        <v>18580</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,75 +1208,91 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>25980</v>
+        <v>25880</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44645</v>
+      </c>
+      <c r="B8" s="16">
+        <v>19570</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>25980</v>
+        <v>45450</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44645</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44663</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5750</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25980</v>
+        <v>51200</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44645</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44666</v>
+      </c>
+      <c r="B10" s="13">
+        <v>11580</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>62780</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="52">
+        <v>44671</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7940</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1304,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,11 +1320,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1336,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1352,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1368,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1384,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1400,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1416,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1432,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1448,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1464,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1480,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1496,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1512,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1528,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1544,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1560,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1576,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1592,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1608,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1624,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1640,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1657,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44645</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1682,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>26100</v>
+        <v>70940</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1667,7 +1690,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1690,7 +1713,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>25980</v>
+        <v>70720</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - BHAWANI (JBP)</t>
-  </si>
-  <si>
-    <t>07-02-2022 gs</t>
-  </si>
-  <si>
-    <t>gs12-4-2</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,151 +1142,115 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44589</v>
-      </c>
-      <c r="B5" s="8">
-        <v>6600</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>120</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>6380</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>217</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44599</v>
-      </c>
-      <c r="B6" s="8">
-        <v>12200</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8">
-        <v>100</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>18580</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>207</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44601</v>
-      </c>
-      <c r="B7" s="16">
-        <v>7300</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>25880</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>205</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44645</v>
-      </c>
-      <c r="B8" s="16">
-        <v>19570</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>45450</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>161</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>44663</v>
-      </c>
-      <c r="B9" s="13">
-        <v>5750</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>51200</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>143</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44666</v>
-      </c>
-      <c r="B10" s="13">
-        <v>11580</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>62780</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
-        <v>44671</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7940</v>
-      </c>
+      <c r="A11" s="52"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1320,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1682,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>70940</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1690,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1713,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44820</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1142,43 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44919</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5650</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>5650</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44940</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8100</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>13750</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45024</v>
+      </c>
+      <c r="G5" s="8">
+        <v>535</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>5650</v>
+        <v>5115</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>37</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,43 +1178,51 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>13750</v>
+        <v>13215</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>45021</v>
+      </c>
+      <c r="B7" s="16">
+        <v>8850</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>13750</v>
+        <v>22065</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>45024</v>
+      </c>
+      <c r="B8" s="16">
+        <v>10100</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1234,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1250,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1266,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1282,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1298,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1314,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1330,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1346,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1362,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1378,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1394,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1410,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1426,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1442,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1458,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1474,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1490,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1506,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1522,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1538,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1554,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1570,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1586,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1602,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1618,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1635,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1648,7 +1660,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>13750</v>
+        <v>32700</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1656,7 +1668,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1691,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>13750</v>
+        <v>32165</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,87 +1142,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44919</v>
-      </c>
-      <c r="B5" s="8">
-        <v>5650</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45024</v>
-      </c>
-      <c r="G5" s="8">
-        <v>535</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>5115</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>123</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44940</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8100</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>13215</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>102</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45021</v>
-      </c>
-      <c r="B7" s="16">
-        <v>8850</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>22065</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>21</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>45024</v>
-      </c>
-      <c r="B8" s="16">
-        <v>10100</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>18</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45042</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1660,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>32700</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1668,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>32165</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BHAWANI JBP.xlsx
+++ b/IMPORTANT/BHAWANI JBP.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
